--- a/excel/write-excel/new.xlsx
+++ b/excel/write-excel/new.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>stt</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t>ngaysinh</t>
-  </si>
-  <si>
-    <t>Nguyen Van Dinh1</t>
-  </si>
-  <si>
-    <t>Nguyen Van Dinh2</t>
-  </si>
-  <si>
-    <t>Nguyen Van Dinh3</t>
   </si>
   <si>
     <t>tuoi</t>
@@ -72,7 +63,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,23 +108,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="C3" sqref="C3"/>
@@ -439,39 +422,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1993</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -479,7 +429,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="C1" sqref="C1"/>
@@ -495,7 +445,12 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel/write-excel/new.xlsx
+++ b/excel/write-excel/new.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">Tháng: </t>
+  </si>
   <si>
     <t>stt</t>
   </si>
@@ -24,9 +27,6 @@
     <t>hoten</t>
   </si>
   <si>
-    <t>ngaysinh</t>
-  </si>
-  <si>
     <t>tuoi</t>
   </si>
 </sst>
@@ -36,28 +36,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <color rgb="FF7030A0"/>
+      <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -65,52 +59,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,11 +345,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
@@ -405,41 +357,19 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -459,10 +389,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>

--- a/excel/write-excel/new.xlsx
+++ b/excel/write-excel/new.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">Tháng: </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>stt</t>
   </si>
@@ -27,6 +24,9 @@
     <t>hoten</t>
   </si>
   <si>
+    <t>ngaysinh</t>
+  </si>
+  <si>
     <t>tuoi</t>
   </si>
 </sst>
@@ -36,22 +36,28 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <color theme="1"/>
+      <color rgb="FF7030A0"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -59,12 +65,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,9 +391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
@@ -357,19 +405,15 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -389,10 +433,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>

--- a/excel/write-excel/new.xlsx
+++ b/excel/write-excel/new.xlsx
@@ -383,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -416,6 +416,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel/write-excel/new.xlsx
+++ b/excel/write-excel/new.xlsx
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A10" sqref="A10"/>
@@ -416,8 +416,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
     </row>
